--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_23_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_23_23.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>124908.152234973</v>
+        <v>138634.5103723911</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11027588.36883181</v>
+        <v>11570801.98917608</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19158648.45267971</v>
+        <v>19701862.07302397</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5054875.684517916</v>
+        <v>4749983.656611738</v>
       </c>
     </row>
     <row r="11">
@@ -8775,13 +8777,13 @@
         <v>61.18167021676314</v>
       </c>
       <c r="M12" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>38.66169381481656</v>
       </c>
       <c r="O12" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>65.92768427608706</v>
@@ -9012,19 +9014,19 @@
         <v>61.18167021676314</v>
       </c>
       <c r="M15" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>38.66169381481656</v>
       </c>
       <c r="O15" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>65.92768427608706</v>
       </c>
       <c r="Q15" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9091,13 +9093,13 @@
         <v>90.4687457914608</v>
       </c>
       <c r="M16" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>81.96869489115805</v>
       </c>
       <c r="O16" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>101.5955875616828</v>
@@ -9167,16 +9169,16 @@
         <v>135.370731907559</v>
       </c>
       <c r="L17" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>110.5750244233121</v>
       </c>
       <c r="O17" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>135.4597561231036</v>
@@ -9240,19 +9242,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>80.29914934735042</v>
       </c>
       <c r="L18" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>57.81213424001893</v>
@@ -9261,7 +9263,7 @@
         <v>65.92768427608706</v>
       </c>
       <c r="Q18" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9319,25 +9321,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>94.30397654773019</v>
       </c>
       <c r="L19" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9477,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9489,16 +9491,16 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9732,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9799,19 +9801,19 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L25" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9872,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9948,22 +9950,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>93.17061249236157</v>
       </c>
       <c r="K27" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -10036,19 +10038,19 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L28" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10118,16 +10120,16 @@
         <v>130.6648563030561</v>
       </c>
       <c r="M29" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>110.5750244233121</v>
       </c>
       <c r="O29" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q29" t="n">
         <v>150.3839754851235</v>
@@ -10191,22 +10193,22 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K30" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>51.84373129681028</v>
       </c>
       <c r="N30" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>94.49434172313325</v>
@@ -10346,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L32" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10361,10 +10363,10 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>150.3839754851235</v>
@@ -10440,10 +10442,10 @@
         <v>38.66169381481656</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P33" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>94.49434172313325</v>
@@ -10510,16 +10512,16 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L34" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>92.09541281912071</v>
       </c>
       <c r="N34" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>101.5955875616828</v>
@@ -10589,7 +10591,7 @@
         <v>135.370731907559</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10598,10 +10600,10 @@
         <v>110.5750244233121</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q35" t="n">
         <v>150.3839754851235</v>
@@ -10671,13 +10673,13 @@
         <v>61.18167021676314</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P36" t="n">
         <v>65.92768427608706</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10899,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10923,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10984,7 +10986,7 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -10993,7 +10995,7 @@
         <v>81.96869489115805</v>
       </c>
       <c r="O40" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>101.5955875616828</v>
@@ -11063,19 +11065,19 @@
         <v>135.370731907559</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O41" t="n">
         <v>117.8828208804077</v>
       </c>
       <c r="P41" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>150.3839754851235</v>
@@ -11142,7 +11144,7 @@
         <v>80.29914934735042</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11309,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>135.4597561231036</v>
@@ -23367,13 +23369,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -23604,19 +23606,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R15" t="n">
         <v>78.03303713061706</v>
@@ -23683,13 +23685,13 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -23759,16 +23761,16 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -23832,19 +23834,19 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -23853,7 +23855,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R18" t="n">
         <v>78.03303713061706</v>
@@ -23911,25 +23913,25 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J19" t="n">
-        <v>72.23757736389061</v>
+        <v>105.873818686614</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O19" t="n">
         <v>96.22962838366004</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q19" t="n">
         <v>61.14583096471014</v>
@@ -24069,7 +24071,7 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K21" t="n">
         <v>80.29914934735042</v>
@@ -24081,16 +24083,16 @@
         <v>51.84373129681028</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P21" t="n">
         <v>65.92768427608706</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R21" t="n">
         <v>78.03303713061706</v>
@@ -24227,31 +24229,31 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K23" t="n">
         <v>135.370731907559</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N23" t="n">
         <v>110.5750244233121</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R23" t="n">
-        <v>108.0327934026353</v>
+        <v>173.7492132756177</v>
       </c>
       <c r="S23" t="n">
         <v>193.8433399116564</v>
@@ -24306,7 +24308,7 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K24" t="n">
         <v>80.29914934735042</v>
@@ -24324,10 +24326,10 @@
         <v>57.81213424001893</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R24" t="n">
         <v>78.03303713061706</v>
@@ -24391,19 +24393,19 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q25" t="n">
         <v>61.14583096471014</v>
@@ -24464,28 +24466,28 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M26" t="n">
         <v>113.4004983079896</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P26" t="n">
         <v>135.4597561231036</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R26" t="n">
         <v>108.0327934026353</v>
@@ -24540,22 +24542,22 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I27" t="n">
-        <v>77.12765456497084</v>
+        <v>87.25340171355576</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L27" t="n">
         <v>61.18167021676314</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O27" t="n">
         <v>57.81213424001893</v>
@@ -24628,19 +24630,19 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N28" t="n">
         <v>81.96869489115805</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q28" t="n">
         <v>61.14583096471014</v>
@@ -24710,16 +24712,16 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P29" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -24783,22 +24785,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -24938,13 +24940,13 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J32" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M32" t="n">
         <v>113.4004983079896</v>
@@ -24953,10 +24955,10 @@
         <v>110.5750244233121</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -25032,10 +25034,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -25102,16 +25104,16 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -25181,7 +25183,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>113.4004983079896</v>
@@ -25190,10 +25192,10 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -25263,13 +25265,13 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -25412,7 +25414,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J38" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>135.370731907559</v>
@@ -25491,13 +25493,13 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J39" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>51.84373129681028</v>
@@ -25515,7 +25517,7 @@
         <v>94.49434172313325</v>
       </c>
       <c r="R39" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S39" t="n">
         <v>165.0641745378389</v>
@@ -25576,7 +25578,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>92.09541281912071</v>
@@ -25585,7 +25587,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -25655,19 +25657,19 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -25734,7 +25736,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>51.84373129681028</v>
@@ -25901,7 +25903,7 @@
         <v>110.5750244233121</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>190921.6882929717</v>
+        <v>182785.2230701391</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>341919.1441563192</v>
+        <v>318861.5470471132</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>337877.4997642055</v>
+        <v>245488.0801818715</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>144148.2401266035</v>
+        <v>123065.142482145</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>286155.8605838793</v>
+        <v>131183.0358845696</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>283077.5709088037</v>
+        <v>146499.2621813842</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>323049.6001283708</v>
+        <v>287153.3087667636</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>270227.0484653513</v>
+        <v>241051.2673061745</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>261625.0563785191</v>
+        <v>326122.4547420162</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>148710.969528009</v>
+        <v>186603.3586768921</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>276972.896522857</v>
+        <v>312044.4372244787</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>276972.896522857</v>
+        <v>260551.8195742163</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>471083.8947622971</v>
+        <v>471083.894762297</v>
       </c>
       <c r="C2" t="n">
         <v>471083.894762297</v>
@@ -26320,40 +26322,40 @@
         <v>471083.894762297</v>
       </c>
       <c r="E2" t="n">
-        <v>81855.18058867186</v>
+        <v>79181.77058688395</v>
       </c>
       <c r="F2" t="n">
-        <v>131468.6303723431</v>
+        <v>123892.5627507469</v>
       </c>
       <c r="G2" t="n">
-        <v>130140.6615006486</v>
+        <v>99784.13792359609</v>
       </c>
       <c r="H2" t="n">
-        <v>66486.76190543658</v>
+        <v>59559.45839368591</v>
       </c>
       <c r="I2" t="n">
-        <v>113146.4086271129</v>
+        <v>62226.76622591115</v>
       </c>
       <c r="J2" t="n">
-        <v>112134.9705910167</v>
+        <v>67259.24058057883</v>
       </c>
       <c r="K2" t="n">
-        <v>125268.6373345887</v>
+        <v>113474.1416014892</v>
       </c>
       <c r="L2" t="n">
-        <v>107912.6560738823</v>
+        <v>98326.32797872422</v>
       </c>
       <c r="M2" t="n">
-        <v>105086.2872453517</v>
+        <v>126278.2895647864</v>
       </c>
       <c r="N2" t="n">
-        <v>67985.94442304128</v>
+        <v>80436.30085767429</v>
       </c>
       <c r="O2" t="n">
-        <v>110129.1490070628</v>
+        <v>121652.6552375956</v>
       </c>
       <c r="P2" t="n">
-        <v>110129.1490070628</v>
+        <v>104733.6522953665</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="C4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="E4" t="n">
-        <v>23652.40622046845</v>
+        <v>20978.99621868055</v>
       </c>
       <c r="F4" t="n">
-        <v>73265.85600413971</v>
+        <v>65689.78838254345</v>
       </c>
       <c r="G4" t="n">
-        <v>71937.8871324452</v>
+        <v>41581.36355539266</v>
       </c>
       <c r="H4" t="n">
-        <v>8283.987537233155</v>
+        <v>1356.684025482502</v>
       </c>
       <c r="I4" t="n">
-        <v>54943.63425890952</v>
+        <v>4023.991857707731</v>
       </c>
       <c r="J4" t="n">
-        <v>53932.19622281325</v>
+        <v>9056.466212375413</v>
       </c>
       <c r="K4" t="n">
-        <v>67065.86296638526</v>
+        <v>55271.36723328579</v>
       </c>
       <c r="L4" t="n">
-        <v>49709.88170567888</v>
+        <v>40123.55361052079</v>
       </c>
       <c r="M4" t="n">
-        <v>46883.51287714831</v>
+        <v>68075.51519658302</v>
       </c>
       <c r="N4" t="n">
-        <v>9783.170054837847</v>
+        <v>22233.52648947087</v>
       </c>
       <c r="O4" t="n">
-        <v>51926.37463885934</v>
+        <v>63449.88086939213</v>
       </c>
       <c r="P4" t="n">
-        <v>51926.37463885934</v>
+        <v>46530.87792716308</v>
       </c>
     </row>
     <row r="5">
@@ -26519,34 +26521,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-30159.66516943416</v>
+        <v>-30159.66516943418</v>
       </c>
       <c r="C6" t="n">
-        <v>-30159.66516943421</v>
+        <v>-30159.66516943418</v>
       </c>
       <c r="D6" t="n">
-        <v>-30159.66516943427</v>
+        <v>-30159.66516943424</v>
       </c>
       <c r="E6" t="n">
-        <v>-78508.8377368049</v>
+        <v>-78508.83773680497</v>
       </c>
       <c r="F6" t="n">
+        <v>54591.16226319511</v>
+      </c>
+      <c r="G6" t="n">
+        <v>54591.16226319511</v>
+      </c>
+      <c r="H6" t="n">
         <v>54591.16226319509</v>
-      </c>
-      <c r="G6" t="n">
-        <v>54591.1622631951</v>
-      </c>
-      <c r="H6" t="n">
-        <v>54591.1622631951</v>
       </c>
       <c r="I6" t="n">
         <v>54591.1622631951</v>
       </c>
       <c r="J6" t="n">
-        <v>54591.16226319512</v>
+        <v>54591.1622631951</v>
       </c>
       <c r="K6" t="n">
-        <v>54591.16226319512</v>
+        <v>54591.1622631951</v>
       </c>
       <c r="L6" t="n">
         <v>54591.16226319511</v>
@@ -26555,13 +26557,13 @@
         <v>54591.16226319511</v>
       </c>
       <c r="N6" t="n">
-        <v>54591.16226319511</v>
+        <v>54591.1622631951</v>
       </c>
       <c r="O6" t="n">
-        <v>54591.16226319511</v>
+        <v>54591.16226319512</v>
       </c>
       <c r="P6" t="n">
-        <v>54591.16226319511</v>
+        <v>54591.1622631951</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_23_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_23_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>138634.5103723911</v>
+        <v>54849.10861076628</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11570801.98917608</v>
+        <v>9654200.856693137</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19701862.07302397</v>
+        <v>17785260.94054101</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4749983.656611738</v>
+        <v>5745140.241574501</v>
       </c>
     </row>
     <row r="11">
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8777,13 +8777,13 @@
         <v>61.18167021676314</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N12" t="n">
         <v>38.66169381481656</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P12" t="n">
         <v>65.92768427608706</v>
@@ -9014,19 +9014,19 @@
         <v>61.18167021676314</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N15" t="n">
         <v>38.66169381481656</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P15" t="n">
         <v>65.92768427608706</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9093,13 +9093,13 @@
         <v>90.4687457914608</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N16" t="n">
         <v>81.96869489115805</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P16" t="n">
         <v>101.5955875616828</v>
@@ -9169,16 +9169,16 @@
         <v>135.370731907559</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N17" t="n">
         <v>110.5750244233121</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P17" t="n">
         <v>135.4597561231036</v>
@@ -9242,19 +9242,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K18" t="n">
         <v>80.29914934735042</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O18" t="n">
         <v>57.81213424001893</v>
@@ -9263,7 +9263,7 @@
         <v>65.92768427608706</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9321,25 +9321,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
         <v>94.30397654773019</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9801,19 +9801,19 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9950,31 +9950,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
         <v>93.17061249236157</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10038,19 +10038,19 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10120,13 +10120,13 @@
         <v>130.6648563030561</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N29" t="n">
         <v>110.5750244233121</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P29" t="n">
         <v>135.4597561231036</v>
@@ -10193,22 +10193,22 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M30" t="n">
         <v>51.84373129681028</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q30" t="n">
         <v>94.49434172313325</v>
@@ -10354,19 +10354,19 @@
         <v>135.370731907559</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q32" t="n">
         <v>150.3839754851235</v>
@@ -10445,7 +10445,7 @@
         <v>57.81213424001893</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q33" t="n">
         <v>94.49434172313325</v>
@@ -10512,16 +10512,16 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M34" t="n">
         <v>92.09541281912071</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P34" t="n">
         <v>101.5955875616828</v>
@@ -10594,7 +10594,7 @@
         <v>130.6648563030561</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N35" t="n">
         <v>110.5750244233121</v>
@@ -10825,25 +10825,25 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10910,19 +10910,19 @@
         <v>61.18167021676314</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10989,13 +10989,13 @@
         <v>90.4687457914608</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N40" t="n">
         <v>81.96869489115805</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P40" t="n">
         <v>101.5955875616828</v>
@@ -11077,7 +11077,7 @@
         <v>117.8828208804077</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q41" t="n">
         <v>150.3839754851235</v>
@@ -11147,13 +11147,13 @@
         <v>61.18167021676314</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P42" t="n">
         <v>65.92768427608706</v>
@@ -11302,16 +11302,16 @@
         <v>135.370731907559</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P44" t="n">
         <v>135.4597561231036</v>
@@ -11381,16 +11381,16 @@
         <v>80.29914934735042</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P45" t="n">
         <v>65.92768427608706</v>
@@ -23281,31 +23281,31 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J11" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S11" t="n">
         <v>193.8433399116564</v>
@@ -23369,13 +23369,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -23606,19 +23606,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>78.03303713061706</v>
@@ -23685,13 +23685,13 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -23761,16 +23761,16 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -23834,19 +23834,19 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J18" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -23855,7 +23855,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>78.03303713061706</v>
@@ -23913,25 +23913,25 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J19" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>61.14583096471014</v>
@@ -23992,31 +23992,31 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J20" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S20" t="n">
         <v>193.8433399116564</v>
@@ -24071,28 +24071,28 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J21" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>78.03303713061706</v>
@@ -24150,28 +24150,28 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J22" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K22" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R22" t="n">
         <v>163.8605191622716</v>
@@ -24229,31 +24229,31 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J23" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S23" t="n">
         <v>193.8433399116564</v>
@@ -24308,28 +24308,28 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J24" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>78.03303713061706</v>
@@ -24393,19 +24393,19 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>61.14583096471014</v>
@@ -24466,28 +24466,28 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J26" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>108.0327934026353</v>
@@ -24542,31 +24542,31 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I27" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>78.03303713061706</v>
@@ -24630,19 +24630,19 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>61.14583096471014</v>
@@ -24712,13 +24712,13 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -24785,22 +24785,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -24946,19 +24946,19 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -25037,7 +25037,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -25104,16 +25104,16 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -25186,7 +25186,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -25417,25 +25417,25 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>108.0327934026353</v>
@@ -25502,19 +25502,19 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>78.03303713061706</v>
@@ -25581,13 +25581,13 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -25669,7 +25669,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -25739,13 +25739,13 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -25894,16 +25894,16 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -25973,16 +25973,16 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>182785.2230701391</v>
+        <v>341919.1441563192</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>318861.5470471132</v>
+        <v>341919.1441563192</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>245488.0801818715</v>
+        <v>341919.1441563192</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>123065.142482145</v>
+        <v>341919.1441563192</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>131183.0358845696</v>
+        <v>341919.1441563192</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>146499.2621813842</v>
+        <v>341919.1441563192</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>287153.3087667636</v>
+        <v>341919.1441563192</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>241051.2673061745</v>
+        <v>341919.1441563192</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>326122.4547420162</v>
+        <v>341919.1441563192</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>186603.3586768921</v>
+        <v>341919.1441563192</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>312044.4372244787</v>
+        <v>341919.1441563192</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>260551.8195742163</v>
+        <v>341919.1441563192</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>471083.894762297</v>
+        <v>471083.8947622971</v>
       </c>
       <c r="C2" t="n">
         <v>471083.894762297</v>
       </c>
       <c r="D2" t="n">
-        <v>471083.894762297</v>
+        <v>471083.8947622971</v>
       </c>
       <c r="E2" t="n">
-        <v>79181.77058688395</v>
+        <v>131468.6303723431</v>
       </c>
       <c r="F2" t="n">
-        <v>123892.5627507469</v>
+        <v>131468.6303723431</v>
       </c>
       <c r="G2" t="n">
-        <v>99784.13792359609</v>
+        <v>131468.6303723431</v>
       </c>
       <c r="H2" t="n">
-        <v>59559.45839368591</v>
+        <v>131468.6303723431</v>
       </c>
       <c r="I2" t="n">
-        <v>62226.76622591115</v>
+        <v>131468.6303723431</v>
       </c>
       <c r="J2" t="n">
-        <v>67259.24058057883</v>
+        <v>131468.6303723431</v>
       </c>
       <c r="K2" t="n">
-        <v>113474.1416014892</v>
+        <v>131468.6303723431</v>
       </c>
       <c r="L2" t="n">
-        <v>98326.32797872422</v>
+        <v>131468.6303723431</v>
       </c>
       <c r="M2" t="n">
-        <v>126278.2895647864</v>
+        <v>131468.6303723431</v>
       </c>
       <c r="N2" t="n">
-        <v>80436.30085767429</v>
+        <v>131468.6303723431</v>
       </c>
       <c r="O2" t="n">
-        <v>121652.6552375956</v>
+        <v>131468.6303723431</v>
       </c>
       <c r="P2" t="n">
-        <v>104733.6522953665</v>
+        <v>131468.6303723431</v>
       </c>
     </row>
     <row r="3">
@@ -26426,40 +26426,40 @@
         <v>467615.9599317312</v>
       </c>
       <c r="E4" t="n">
-        <v>20978.99621868055</v>
+        <v>73265.8560041397</v>
       </c>
       <c r="F4" t="n">
-        <v>65689.78838254345</v>
+        <v>73265.8560041397</v>
       </c>
       <c r="G4" t="n">
-        <v>41581.36355539266</v>
+        <v>73265.8560041397</v>
       </c>
       <c r="H4" t="n">
-        <v>1356.684025482502</v>
+        <v>73265.8560041397</v>
       </c>
       <c r="I4" t="n">
-        <v>4023.991857707731</v>
+        <v>73265.8560041397</v>
       </c>
       <c r="J4" t="n">
-        <v>9056.466212375413</v>
+        <v>73265.8560041397</v>
       </c>
       <c r="K4" t="n">
-        <v>55271.36723328579</v>
+        <v>73265.8560041397</v>
       </c>
       <c r="L4" t="n">
-        <v>40123.55361052079</v>
+        <v>73265.8560041397</v>
       </c>
       <c r="M4" t="n">
-        <v>68075.51519658302</v>
+        <v>73265.8560041397</v>
       </c>
       <c r="N4" t="n">
-        <v>22233.52648947087</v>
+        <v>73265.8560041397</v>
       </c>
       <c r="O4" t="n">
-        <v>63449.88086939213</v>
+        <v>73265.8560041397</v>
       </c>
       <c r="P4" t="n">
-        <v>46530.87792716308</v>
+        <v>73265.8560041397</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-30159.66516943418</v>
+        <v>-30203.80094811524</v>
       </c>
       <c r="C6" t="n">
-        <v>-30159.66516943418</v>
+        <v>-30203.8009481153</v>
       </c>
       <c r="D6" t="n">
-        <v>-30159.66516943424</v>
+        <v>-30203.80094811524</v>
       </c>
       <c r="E6" t="n">
-        <v>-78508.83773680497</v>
+        <v>-93318.85457591886</v>
       </c>
       <c r="F6" t="n">
-        <v>54591.16226319511</v>
+        <v>39781.14542408119</v>
       </c>
       <c r="G6" t="n">
-        <v>54591.16226319511</v>
+        <v>39781.14542408119</v>
       </c>
       <c r="H6" t="n">
-        <v>54591.16226319509</v>
+        <v>39781.14542408119</v>
       </c>
       <c r="I6" t="n">
-        <v>54591.1622631951</v>
+        <v>39781.14542408119</v>
       </c>
       <c r="J6" t="n">
-        <v>54591.1622631951</v>
+        <v>39781.14542408119</v>
       </c>
       <c r="K6" t="n">
-        <v>54591.1622631951</v>
+        <v>39781.14542408119</v>
       </c>
       <c r="L6" t="n">
-        <v>54591.16226319511</v>
+        <v>39781.14542408119</v>
       </c>
       <c r="M6" t="n">
-        <v>54591.16226319511</v>
+        <v>39781.14542408119</v>
       </c>
       <c r="N6" t="n">
-        <v>54591.1622631951</v>
+        <v>39781.14542408119</v>
       </c>
       <c r="O6" t="n">
-        <v>54591.16226319512</v>
+        <v>39781.14542408119</v>
       </c>
       <c r="P6" t="n">
-        <v>54591.1622631951</v>
+        <v>39781.14542408119</v>
       </c>
     </row>
   </sheetData>
